--- a/res/tables/average_time_of_request.xlsx
+++ b/res/tables/average_time_of_request.xlsx
@@ -435,226 +435,226 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>30000</v>
+        <v>280000</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>40000</v>
+        <v>360000</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>50000</v>
+        <v>440000</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
+        <v>520000</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>70000</v>
+        <v>600000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>80000</v>
+        <v>680000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>90000</v>
+        <v>760000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>100000</v>
+        <v>840000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>110000</v>
+        <v>920000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.636363636363636</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8020408163265307</v>
+        <v>0.1127348643006263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5427159209157129</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4130041641879833</v>
+        <v>0.06758448060075094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3342560553633218</v>
+        <v>0.05630865484880083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2810880331708066</v>
+        <v>0.04825737265415549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2426750644713351</v>
+        <v>0.04222048475371384</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2135802469135803</v>
+        <v>0.03752605976372481</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1907595701002294</v>
+        <v>0.03377110694183865</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1723708014365793</v>
+        <v>0.03069926094371802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9834443288241416</v>
+        <v>0.1980950084398361</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6205536332179931</v>
+        <v>0.1256089074460682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4579537790121008</v>
+        <v>0.09203496843127731</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3638734452360826</v>
+        <v>0.07264147752257889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3021694667640614</v>
+        <v>0.0600046344571892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2584779441757473</v>
+        <v>0.05111538266983661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2258792377527301</v>
+        <v>0.04452120637280662</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2006094182825485</v>
+        <v>0.03943459125197651</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1804396261067405</v>
+        <v>0.03539143783046222</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1639638495418914</v>
+        <v>0.03210045814801191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.910405276816609</v>
+        <v>0.2753476408648823</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6018333333333333</v>
+        <v>0.1558803061934586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.450549146274653</v>
+        <v>0.1093003702601221</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3602178089633318</v>
+        <v>0.08427057662992826</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3001028393351801</v>
+        <v>0.06860377890004339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.257197541836962</v>
+        <v>0.05786263032008773</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2250316993274583</v>
+        <v>0.05003572321103677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2000196195005945</v>
+        <v>0.04407704949076607</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1800127840365607</v>
+        <v>0.03938825402240037</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1636450464113579</v>
+        <v>0.03560209253042483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9010737601666337</v>
+        <v>0.1892363841389329</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6001301680058436</v>
+        <v>0.1083500324673058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4500296742741546</v>
+        <v>0.07639793968371135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3600094959239056</v>
+        <v>0.059099858464653</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3000037569573284</v>
+        <v>0.04821985580437612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2571445761642107</v>
+        <v>0.04073499878446501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2250008744263461</v>
+        <v>0.03526703951180923</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2000004821389437</v>
+        <v>0.0310960781050237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1800002832438302</v>
+        <v>0.0278088825278645</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1636365387747635</v>
+        <v>0.0251511231478616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9000919186711297</v>
+        <v>0.1520940455109734</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6000075628112268</v>
+        <v>0.08869191986192984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4500013040666985</v>
+        <v>0.06302221993595912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3600003354999053</v>
+        <v>0.04896081821506895</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3000001109725396</v>
+        <v>0.0400552315438624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2571429007648584</v>
+        <v>0.03390070163214779</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2250000194488104</v>
+        <v>0.02939006265156881</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2000000095446342</v>
+        <v>0.02594105657085092</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1800000050517694</v>
+        <v>0.02321777504914837</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1636363664784759</v>
+        <v>0.02101267761019543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9000066721272371</v>
+        <v>0.1063369385987738</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6000003702216066</v>
+        <v>0.1967169981073636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4500000481433536</v>
+        <v>0.1054595856262737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3600000099408668</v>
+        <v>0.07399065642957901</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3000000027459319</v>
+        <v>0.05740349133018205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2571428580694446</v>
+        <v>0.0470232700775281</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2250000003618833</v>
+        <v>0.03987452616427099</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2000000001580006</v>
+        <v>0.03463661621790776</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1800000000753157</v>
+        <v>0.03062738165132352</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1636363636749057</v>
+        <v>0.02745687139870872</v>
       </c>
     </row>
   </sheetData>
